--- a/Technical Task 3a(1-5).xlsx
+++ b/Technical Task 3a(1-5).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\321646\Downloads\HealthAdviceGroupT3-main\HealthAdviceGroupT3-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrjam\Documents\GitHub\HealthAdviceGroupT3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24DDFFB-16AB-4E34-88A6-8604E48E1F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69E9D51-C635-4732-861B-B26413639196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -190,7 +190,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -258,21 +258,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -333,10 +318,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -345,10 +330,25 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -369,7 +369,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -899,7 +899,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1436,7 +1436,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1966,7 +1966,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4818,32 +4818,32 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Z7" totalsRowCount="1">
   <autoFilter ref="A1:Z6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="51" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="50" totalsRowDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="49" totalsRowDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="48" totalsRowDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="47" totalsRowDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="46" totalsRowDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Security" dataDxfId="45" totalsRowDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Functionality" dataDxfId="44" totalsRowDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Efficiency" dataDxfId="43" totalsRowDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Code Cleanliness" dataDxfId="42" totalsRowDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Do you have any additional comments or statements regarding this feature?" dataDxfId="41" totalsRowDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Security2" dataDxfId="40" totalsRowDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Functionality2" dataDxfId="39" totalsRowDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Efficiency2" dataDxfId="38" totalsRowDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Code Cleanliness2" dataDxfId="37" totalsRowDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Do you have any additional comments or statements regarding this feature?2" dataDxfId="36" totalsRowDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Security3" dataDxfId="35" totalsRowDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Functionality3" dataDxfId="34" totalsRowDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Efficiency3" dataDxfId="33" totalsRowDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Code Cleanliness3" dataDxfId="32" totalsRowDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Do you have any additional comments or statements regarding this feature?3" dataDxfId="31" totalsRowDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Security4" dataDxfId="30" totalsRowDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Functionality4" dataDxfId="29" totalsRowDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Efficiency4" dataDxfId="28" totalsRowDxfId="2"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Code Cleanliness4" dataDxfId="27" totalsRowDxfId="1"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Do you have any additional comments or statements regarding this feature?4" dataDxfId="26" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Security" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Functionality" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Efficiency" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Code Cleanliness" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Do you have any additional comments or statements regarding this feature?" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Security2" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Functionality2" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Efficiency2" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Code Cleanliness2" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Do you have any additional comments or statements regarding this feature?2" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Security3" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Functionality3" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Efficiency3" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Code Cleanliness3" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Do you have any additional comments or statements regarding this feature?3" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Security4" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Functionality4" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Efficiency4" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Code Cleanliness4" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Do you have any additional comments or statements regarding this feature?4" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5148,13 +5148,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="90" customWidth="1"/>
+    <col min="17" max="26" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
